--- a/level-3/hackerearth/phase-3-advanced-data-structures-2/hackerearth-phase-3-advanced-data-structures-2.xlsx
+++ b/level-3/hackerearth/phase-3-advanced-data-structures-2/hackerearth-phase-3-advanced-data-structures-2.xlsx
@@ -1,16 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D18F75F6-BA84-4C6F-9DFB-E1FC64E59189}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DD7986D-24F3-49F0-A2C5-813A17BD9794}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="713" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="level 3 - data structures 2" sheetId="14" r:id="rId1"/>
+    <sheet name="advanced-data-structures-2" sheetId="14" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -555,7 +568,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -570,16 +583,13 @@
     <xf numFmtId="1" fontId="5" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -620,154 +630,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="37">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="16">
     <dxf>
       <fill>
         <patternFill>
@@ -1230,78 +1093,78 @@
     <col min="3" max="7" width="15.109375" style="8" customWidth="1"/>
     <col min="8" max="8" width="11.6640625" style="8" customWidth="1"/>
     <col min="9" max="9" width="67.33203125" style="1" customWidth="1"/>
-    <col min="10" max="10" width="67.33203125" style="11" customWidth="1"/>
+    <col min="10" max="10" width="67.33203125" style="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="H1" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="I1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="11" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="16"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="13"/>
+      <c r="A2" s="15"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="19"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="12"/>
     </row>
     <row r="3" spans="1:10" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="17"/>
-      <c r="B3" s="13"/>
+      <c r="A3" s="16"/>
+      <c r="B3" s="12"/>
       <c r="C3" s="5" t="e">
-        <f>AVERAGE(C4:C73)</f>
+        <f t="shared" ref="C3:H3" si="0">AVERAGE(C4:C73)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D3" s="5" t="e">
-        <f>AVERAGE(D4:D73)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="E3" s="5" t="e">
-        <f>AVERAGE(E4:E73)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="F3" s="5" t="e">
-        <f>AVERAGE(F4:F73)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="G3" s="5" t="e">
-        <f>AVERAGE(G4:G73)</f>
+        <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
       <c r="H3" s="5">
-        <f>AVERAGE(H4:H73)</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="I3" s="4">
@@ -1325,11 +1188,11 @@
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
-      <c r="H4" s="9">
-        <f t="shared" ref="H4:H36" si="0">SUM(C4:G4)</f>
-        <v>0</v>
-      </c>
-      <c r="J4" s="10" t="s">
+      <c r="H4" s="6">
+        <f t="shared" ref="H4:H36" si="1">SUM(C4:G4)</f>
+        <v>0</v>
+      </c>
+      <c r="J4" s="9" t="s">
         <v>126</v>
       </c>
     </row>
@@ -1345,11 +1208,11 @@
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
-      <c r="H5" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J5" s="10" t="s">
+      <c r="H5" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J5" s="9" t="s">
         <v>125</v>
       </c>
     </row>
@@ -1365,11 +1228,11 @@
       <c r="E6" s="7"/>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
-      <c r="H6" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J6" s="10" t="s">
+      <c r="H6" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J6" s="9" t="s">
         <v>124</v>
       </c>
     </row>
@@ -1385,11 +1248,11 @@
       <c r="E7" s="7"/>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
-      <c r="H7" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J7" s="10" t="s">
+      <c r="H7" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J7" s="9" t="s">
         <v>123</v>
       </c>
     </row>
@@ -1405,11 +1268,11 @@
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
-      <c r="H8" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J8" s="10" t="s">
+      <c r="H8" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J8" s="9" t="s">
         <v>122</v>
       </c>
     </row>
@@ -1425,11 +1288,11 @@
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
-      <c r="H9" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J9" s="10" t="s">
+      <c r="H9" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J9" s="9" t="s">
         <v>121</v>
       </c>
     </row>
@@ -1445,11 +1308,11 @@
       <c r="E10" s="7"/>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
-      <c r="H10" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J10" s="10" t="s">
+      <c r="H10" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J10" s="9" t="s">
         <v>120</v>
       </c>
     </row>
@@ -1465,11 +1328,11 @@
       <c r="E11" s="7"/>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
-      <c r="H11" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J11" s="10" t="s">
+      <c r="H11" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J11" s="9" t="s">
         <v>119</v>
       </c>
     </row>
@@ -1485,11 +1348,11 @@
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
-      <c r="H12" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J12" s="10" t="s">
+      <c r="H12" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J12" s="9" t="s">
         <v>118</v>
       </c>
     </row>
@@ -1505,11 +1368,11 @@
       <c r="E13" s="7"/>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
-      <c r="H13" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J13" s="10" t="s">
+      <c r="H13" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J13" s="9" t="s">
         <v>117</v>
       </c>
     </row>
@@ -1525,11 +1388,11 @@
       <c r="E14" s="7"/>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
-      <c r="H14" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J14" s="10" t="s">
+      <c r="H14" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="9" t="s">
         <v>116</v>
       </c>
     </row>
@@ -1545,11 +1408,11 @@
       <c r="E15" s="7"/>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
-      <c r="H15" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J15" s="10" t="s">
+      <c r="H15" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J15" s="9" t="s">
         <v>115</v>
       </c>
     </row>
@@ -1565,11 +1428,11 @@
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
-      <c r="H16" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J16" s="10" t="s">
+      <c r="H16" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J16" s="9" t="s">
         <v>114</v>
       </c>
     </row>
@@ -1585,11 +1448,11 @@
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
-      <c r="H17" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J17" s="10" t="s">
+      <c r="H17" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J17" s="9" t="s">
         <v>113</v>
       </c>
     </row>
@@ -1605,11 +1468,11 @@
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
-      <c r="H18" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J18" s="10" t="s">
+      <c r="H18" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J18" s="9" t="s">
         <v>112</v>
       </c>
     </row>
@@ -1625,11 +1488,11 @@
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
-      <c r="H19" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J19" s="10" t="s">
+      <c r="H19" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J19" s="9" t="s">
         <v>111</v>
       </c>
     </row>
@@ -1645,11 +1508,11 @@
       <c r="E20" s="7"/>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
-      <c r="H20" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J20" s="10" t="s">
+      <c r="H20" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J20" s="9" t="s">
         <v>110</v>
       </c>
     </row>
@@ -1665,11 +1528,11 @@
       <c r="E21" s="7"/>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
-      <c r="H21" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J21" s="10" t="s">
+      <c r="H21" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J21" s="9" t="s">
         <v>109</v>
       </c>
     </row>
@@ -1685,11 +1548,11 @@
       <c r="E22" s="7"/>
       <c r="F22" s="7"/>
       <c r="G22" s="7"/>
-      <c r="H22" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J22" s="10" t="s">
+      <c r="H22" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J22" s="9" t="s">
         <v>108</v>
       </c>
     </row>
@@ -1705,11 +1568,11 @@
       <c r="E23" s="7"/>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
-      <c r="H23" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J23" s="10" t="s">
+      <c r="H23" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J23" s="9" t="s">
         <v>107</v>
       </c>
     </row>
@@ -1725,11 +1588,11 @@
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
-      <c r="H24" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J24" s="10" t="s">
+      <c r="H24" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J24" s="9" t="s">
         <v>106</v>
       </c>
     </row>
@@ -1745,11 +1608,11 @@
       <c r="E25" s="7"/>
       <c r="F25" s="7"/>
       <c r="G25" s="7"/>
-      <c r="H25" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J25" s="10" t="s">
+      <c r="H25" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J25" s="9" t="s">
         <v>105</v>
       </c>
     </row>
@@ -1765,11 +1628,11 @@
       <c r="E26" s="7"/>
       <c r="F26" s="7"/>
       <c r="G26" s="7"/>
-      <c r="H26" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J26" s="10" t="s">
+      <c r="H26" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J26" s="9" t="s">
         <v>104</v>
       </c>
     </row>
@@ -1785,11 +1648,11 @@
       <c r="E27" s="7"/>
       <c r="F27" s="7"/>
       <c r="G27" s="7"/>
-      <c r="H27" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J27" s="10" t="s">
+      <c r="H27" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J27" s="9" t="s">
         <v>103</v>
       </c>
     </row>
@@ -1805,11 +1668,11 @@
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
       <c r="G28" s="7"/>
-      <c r="H28" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J28" s="10" t="s">
+      <c r="H28" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J28" s="9" t="s">
         <v>102</v>
       </c>
     </row>
@@ -1825,11 +1688,11 @@
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
-      <c r="H29" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J29" s="10" t="s">
+      <c r="H29" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J29" s="9" t="s">
         <v>101</v>
       </c>
     </row>
@@ -1845,11 +1708,11 @@
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
-      <c r="H30" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J30" s="10" t="s">
+      <c r="H30" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J30" s="9" t="s">
         <v>100</v>
       </c>
     </row>
@@ -1865,11 +1728,11 @@
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
-      <c r="H31" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J31" s="10" t="s">
+      <c r="H31" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J31" s="9" t="s">
         <v>99</v>
       </c>
     </row>
@@ -1885,11 +1748,11 @@
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
-      <c r="H32" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J32" s="10" t="s">
+      <c r="H32" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J32" s="9" t="s">
         <v>98</v>
       </c>
     </row>
@@ -1905,11 +1768,11 @@
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
-      <c r="H33" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J33" s="10" t="s">
+      <c r="H33" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J33" s="9" t="s">
         <v>97</v>
       </c>
     </row>
@@ -1925,11 +1788,11 @@
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
-      <c r="H34" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J34" s="10" t="s">
+      <c r="H34" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J34" s="9" t="s">
         <v>96</v>
       </c>
     </row>
@@ -1945,11 +1808,11 @@
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
-      <c r="H35" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J35" s="10" t="s">
+      <c r="H35" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J35" s="9" t="s">
         <v>95</v>
       </c>
     </row>
@@ -1965,11 +1828,11 @@
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
-      <c r="H36" s="9">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J36" s="10" t="s">
+      <c r="H36" s="6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J36" s="9" t="s">
         <v>94</v>
       </c>
     </row>
@@ -1986,10 +1849,10 @@
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
       <c r="H37" s="6">
-        <f t="shared" ref="H37:H58" si="1">SUM(C37:G37)</f>
-        <v>0</v>
-      </c>
-      <c r="J37" s="10" t="s">
+        <f t="shared" ref="H37:H58" si="2">SUM(C37:G37)</f>
+        <v>0</v>
+      </c>
+      <c r="J37" s="9" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2006,10 +1869,10 @@
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
       <c r="H38" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J38" s="10" t="s">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J38" s="9" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2026,10 +1889,10 @@
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
       <c r="H39" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J39" s="10" t="s">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J39" s="9" t="s">
         <v>17</v>
       </c>
     </row>
@@ -2046,10 +1909,10 @@
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
       <c r="H40" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J40" s="10" t="s">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J40" s="9" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2066,10 +1929,10 @@
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
       <c r="H41" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J41" s="10" t="s">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J41" s="9" t="s">
         <v>19</v>
       </c>
     </row>
@@ -2086,10 +1949,10 @@
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
       <c r="H42" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J42" s="10" t="s">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J42" s="9" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2106,10 +1969,10 @@
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
       <c r="H43" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J43" s="10" t="s">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J43" s="9" t="s">
         <v>21</v>
       </c>
     </row>
@@ -2126,10 +1989,10 @@
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
       <c r="H44" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J44" s="10" t="s">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J44" s="9" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2146,10 +2009,10 @@
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
       <c r="H45" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J45" s="10" t="s">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J45" s="9" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2166,10 +2029,10 @@
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
       <c r="H46" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J46" s="10" t="s">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J46" s="9" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2186,10 +2049,10 @@
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
       <c r="H47" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J47" s="10" t="s">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J47" s="9" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2206,10 +2069,10 @@
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
       <c r="H48" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J48" s="10" t="s">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J48" s="9" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2226,10 +2089,10 @@
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
       <c r="H49" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J49" s="10" t="s">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J49" s="9" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2246,10 +2109,10 @@
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
       <c r="H50" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J50" s="10" t="s">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J50" s="9" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2266,10 +2129,10 @@
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
       <c r="H51" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J51" s="10" t="s">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J51" s="9" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2286,10 +2149,10 @@
       <c r="F52" s="7"/>
       <c r="G52" s="7"/>
       <c r="H52" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J52" s="10" t="s">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J52" s="9" t="s">
         <v>30</v>
       </c>
     </row>
@@ -2306,10 +2169,10 @@
       <c r="F53" s="7"/>
       <c r="G53" s="7"/>
       <c r="H53" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J53" s="10" t="s">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J53" s="9" t="s">
         <v>31</v>
       </c>
     </row>
@@ -2326,10 +2189,10 @@
       <c r="F54" s="7"/>
       <c r="G54" s="7"/>
       <c r="H54" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J54" s="10" t="s">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J54" s="9" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2341,10 +2204,10 @@
         <v>2</v>
       </c>
       <c r="H55" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J55" s="10" t="s">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J55" s="9" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2356,10 +2219,10 @@
         <v>2</v>
       </c>
       <c r="H56" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J56" s="10" t="s">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J56" s="9" t="s">
         <v>34</v>
       </c>
     </row>
@@ -2371,10 +2234,10 @@
         <v>2</v>
       </c>
       <c r="H57" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J57" s="10" t="s">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J57" s="9" t="s">
         <v>35</v>
       </c>
     </row>
@@ -2386,10 +2249,10 @@
         <v>2</v>
       </c>
       <c r="H58" s="6">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J58" s="10" t="s">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="J58" s="9" t="s">
         <v>36</v>
       </c>
     </row>
@@ -2401,10 +2264,10 @@
         <v>2</v>
       </c>
       <c r="H59" s="6">
-        <f t="shared" ref="H59:H73" si="2">SUM(C59:G59)</f>
-        <v>0</v>
-      </c>
-      <c r="J59" s="10" t="s">
+        <f t="shared" ref="H59:H73" si="3">SUM(C59:G59)</f>
+        <v>0</v>
+      </c>
+      <c r="J59" s="9" t="s">
         <v>37</v>
       </c>
     </row>
@@ -2416,10 +2279,10 @@
         <v>2</v>
       </c>
       <c r="H60" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J60" s="10" t="s">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J60" s="9" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2431,10 +2294,10 @@
         <v>2</v>
       </c>
       <c r="H61" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J61" s="10" t="s">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J61" s="9" t="s">
         <v>39</v>
       </c>
     </row>
@@ -2446,10 +2309,10 @@
         <v>2</v>
       </c>
       <c r="H62" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J62" s="10" t="s">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J62" s="9" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2461,10 +2324,10 @@
         <v>2</v>
       </c>
       <c r="H63" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J63" s="10" t="s">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J63" s="9" t="s">
         <v>41</v>
       </c>
     </row>
@@ -2476,10 +2339,10 @@
         <v>2</v>
       </c>
       <c r="H64" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J64" s="10" t="s">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J64" s="9" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2491,10 +2354,10 @@
         <v>2</v>
       </c>
       <c r="H65" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J65" s="10" t="s">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J65" s="9" t="s">
         <v>43</v>
       </c>
     </row>
@@ -2506,10 +2369,10 @@
         <v>2</v>
       </c>
       <c r="H66" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J66" s="10" t="s">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J66" s="9" t="s">
         <v>44</v>
       </c>
     </row>
@@ -2521,10 +2384,10 @@
         <v>2</v>
       </c>
       <c r="H67" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J67" s="10" t="s">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J67" s="9" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2536,10 +2399,10 @@
         <v>2</v>
       </c>
       <c r="H68" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J68" s="10" t="s">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J68" s="9" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2551,10 +2414,10 @@
         <v>2</v>
       </c>
       <c r="H69" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J69" s="10" t="s">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J69" s="9" t="s">
         <v>47</v>
       </c>
     </row>
@@ -2566,10 +2429,10 @@
         <v>2</v>
       </c>
       <c r="H70" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J70" s="10" t="s">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J70" s="9" t="s">
         <v>48</v>
       </c>
     </row>
@@ -2581,10 +2444,10 @@
         <v>2</v>
       </c>
       <c r="H71" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J71" s="10" t="s">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J71" s="9" t="s">
         <v>49</v>
       </c>
     </row>
@@ -2596,10 +2459,10 @@
         <v>2</v>
       </c>
       <c r="H72" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J72" s="10" t="s">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J72" s="9" t="s">
         <v>50</v>
       </c>
     </row>
@@ -2611,10 +2474,10 @@
         <v>2</v>
       </c>
       <c r="H73" s="6">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="J73" s="10" t="s">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J73" s="9" t="s">
         <v>51</v>
       </c>
     </row>
@@ -2625,11 +2488,11 @@
       <c r="B74" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H74" s="9">
-        <f t="shared" ref="H74:H113" si="3">SUM(C74:G74)</f>
-        <v>0</v>
-      </c>
-      <c r="J74" s="10" t="s">
+      <c r="H74" s="6">
+        <f t="shared" ref="H74:H113" si="4">SUM(C74:G74)</f>
+        <v>0</v>
+      </c>
+      <c r="J74" s="9" t="s">
         <v>93</v>
       </c>
     </row>
@@ -2640,11 +2503,11 @@
       <c r="B75" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H75" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J75" s="10" t="s">
+      <c r="H75" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J75" s="9" t="s">
         <v>92</v>
       </c>
     </row>
@@ -2655,11 +2518,11 @@
       <c r="B76" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H76" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J76" s="10" t="s">
+      <c r="H76" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J76" s="9" t="s">
         <v>91</v>
       </c>
     </row>
@@ -2670,11 +2533,11 @@
       <c r="B77" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H77" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J77" s="10" t="s">
+      <c r="H77" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J77" s="9" t="s">
         <v>90</v>
       </c>
     </row>
@@ -2685,11 +2548,11 @@
       <c r="B78" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H78" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J78" s="10" t="s">
+      <c r="H78" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J78" s="9" t="s">
         <v>89</v>
       </c>
     </row>
@@ -2700,11 +2563,11 @@
       <c r="B79" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H79" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J79" s="10" t="s">
+      <c r="H79" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J79" s="9" t="s">
         <v>88</v>
       </c>
     </row>
@@ -2715,11 +2578,11 @@
       <c r="B80" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H80" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J80" s="10" t="s">
+      <c r="H80" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J80" s="9" t="s">
         <v>87</v>
       </c>
     </row>
@@ -2730,11 +2593,11 @@
       <c r="B81" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H81" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J81" s="10" t="s">
+      <c r="H81" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J81" s="9" t="s">
         <v>86</v>
       </c>
     </row>
@@ -2745,11 +2608,11 @@
       <c r="B82" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H82" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J82" s="10" t="s">
+      <c r="H82" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J82" s="9" t="s">
         <v>85</v>
       </c>
     </row>
@@ -2760,11 +2623,11 @@
       <c r="B83" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H83" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J83" s="10" t="s">
+      <c r="H83" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J83" s="9" t="s">
         <v>84</v>
       </c>
     </row>
@@ -2775,11 +2638,11 @@
       <c r="B84" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H84" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J84" s="10" t="s">
+      <c r="H84" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J84" s="9" t="s">
         <v>83</v>
       </c>
     </row>
@@ -2790,11 +2653,11 @@
       <c r="B85" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H85" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J85" s="10" t="s">
+      <c r="H85" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J85" s="9" t="s">
         <v>82</v>
       </c>
     </row>
@@ -2805,11 +2668,11 @@
       <c r="B86" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H86" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J86" s="10" t="s">
+      <c r="H86" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J86" s="9" t="s">
         <v>81</v>
       </c>
     </row>
@@ -2820,11 +2683,11 @@
       <c r="B87" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H87" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J87" s="10" t="s">
+      <c r="H87" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J87" s="9" t="s">
         <v>80</v>
       </c>
     </row>
@@ -2835,11 +2698,11 @@
       <c r="B88" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H88" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J88" s="10" t="s">
+      <c r="H88" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J88" s="9" t="s">
         <v>79</v>
       </c>
     </row>
@@ -2850,11 +2713,11 @@
       <c r="B89" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H89" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J89" s="10" t="s">
+      <c r="H89" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J89" s="9" t="s">
         <v>78</v>
       </c>
     </row>
@@ -2865,11 +2728,11 @@
       <c r="B90" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H90" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J90" s="10" t="s">
+      <c r="H90" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J90" s="9" t="s">
         <v>77</v>
       </c>
     </row>
@@ -2880,11 +2743,11 @@
       <c r="B91" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H91" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J91" s="10" t="s">
+      <c r="H91" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J91" s="9" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2895,11 +2758,11 @@
       <c r="B92" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H92" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J92" s="10" t="s">
+      <c r="H92" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J92" s="9" t="s">
         <v>75</v>
       </c>
     </row>
@@ -2910,11 +2773,11 @@
       <c r="B93" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H93" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J93" s="10" t="s">
+      <c r="H93" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J93" s="9" t="s">
         <v>74</v>
       </c>
     </row>
@@ -2925,11 +2788,11 @@
       <c r="B94" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H94" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J94" s="10" t="s">
+      <c r="H94" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J94" s="9" t="s">
         <v>73</v>
       </c>
     </row>
@@ -2940,11 +2803,11 @@
       <c r="B95" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H95" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J95" s="10" t="s">
+      <c r="H95" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J95" s="9" t="s">
         <v>72</v>
       </c>
     </row>
@@ -2955,11 +2818,11 @@
       <c r="B96" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H96" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J96" s="10" t="s">
+      <c r="H96" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J96" s="9" t="s">
         <v>71</v>
       </c>
     </row>
@@ -2970,11 +2833,11 @@
       <c r="B97" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H97" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J97" s="10" t="s">
+      <c r="H97" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J97" s="9" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2985,11 +2848,11 @@
       <c r="B98" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H98" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J98" s="10" t="s">
+      <c r="H98" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J98" s="9" t="s">
         <v>69</v>
       </c>
     </row>
@@ -3000,11 +2863,11 @@
       <c r="B99" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H99" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J99" s="10" t="s">
+      <c r="H99" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J99" s="9" t="s">
         <v>68</v>
       </c>
     </row>
@@ -3015,11 +2878,11 @@
       <c r="B100" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H100" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J100" s="10" t="s">
+      <c r="H100" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J100" s="9" t="s">
         <v>66</v>
       </c>
     </row>
@@ -3030,11 +2893,11 @@
       <c r="B101" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H101" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J101" s="10" t="s">
+      <c r="H101" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J101" s="9" t="s">
         <v>65</v>
       </c>
     </row>
@@ -3045,11 +2908,11 @@
       <c r="B102" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H102" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J102" s="10" t="s">
+      <c r="H102" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J102" s="9" t="s">
         <v>64</v>
       </c>
     </row>
@@ -3060,11 +2923,11 @@
       <c r="B103" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H103" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J103" s="10" t="s">
+      <c r="H103" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J103" s="9" t="s">
         <v>63</v>
       </c>
     </row>
@@ -3075,11 +2938,11 @@
       <c r="B104" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H104" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J104" s="10" t="s">
+      <c r="H104" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J104" s="9" t="s">
         <v>62</v>
       </c>
     </row>
@@ -3090,11 +2953,11 @@
       <c r="B105" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H105" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J105" s="10" t="s">
+      <c r="H105" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J105" s="9" t="s">
         <v>61</v>
       </c>
     </row>
@@ -3105,11 +2968,11 @@
       <c r="B106" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H106" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J106" s="10" t="s">
+      <c r="H106" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J106" s="9" t="s">
         <v>60</v>
       </c>
     </row>
@@ -3120,11 +2983,11 @@
       <c r="B107" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H107" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J107" s="10" t="s">
+      <c r="H107" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J107" s="9" t="s">
         <v>59</v>
       </c>
     </row>
@@ -3135,11 +2998,11 @@
       <c r="B108" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H108" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J108" s="10" t="s">
+      <c r="H108" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J108" s="9" t="s">
         <v>58</v>
       </c>
     </row>
@@ -3150,11 +3013,11 @@
       <c r="B109" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H109" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J109" s="10" t="s">
+      <c r="H109" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J109" s="9" t="s">
         <v>57</v>
       </c>
     </row>
@@ -3165,11 +3028,11 @@
       <c r="B110" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H110" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J110" s="10" t="s">
+      <c r="H110" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J110" s="9" t="s">
         <v>56</v>
       </c>
     </row>
@@ -3180,11 +3043,11 @@
       <c r="B111" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H111" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J111" s="10" t="s">
+      <c r="H111" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J111" s="9" t="s">
         <v>55</v>
       </c>
     </row>
@@ -3195,11 +3058,11 @@
       <c r="B112" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H112" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J112" s="10" t="s">
+      <c r="H112" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J112" s="9" t="s">
         <v>54</v>
       </c>
     </row>
@@ -3210,11 +3073,11 @@
       <c r="B113" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H113" s="9">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J113" s="10" t="s">
+      <c r="H113" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J113" s="9" t="s">
         <v>52</v>
       </c>
     </row>
@@ -3232,62 +3095,62 @@
     <mergeCell ref="H1:H2"/>
   </mergeCells>
   <conditionalFormatting sqref="J1 A1">
-    <cfRule type="cellIs" dxfId="36" priority="51" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="51" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="cellIs" dxfId="25" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="29" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8:J11 I12:J14">
-    <cfRule type="cellIs" dxfId="17" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="18" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J88:J90 J92:J95">
-    <cfRule type="cellIs" dxfId="14" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="15" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J91">
-    <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="14" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J96">
-    <cfRule type="cellIs" dxfId="12" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="13" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J88:J96">
-    <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="12" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J97">
-    <cfRule type="cellIs" dxfId="10" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="11" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J97">
-    <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="10" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J98">
-    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="9" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J98">
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="8" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I8:I11">
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="7" operator="equal">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>

--- a/level-3/hackerearth/phase-3-advanced-data-structures-2/hackerearth-phase-3-advanced-data-structures-2.xlsx
+++ b/level-3/hackerearth/phase-3-advanced-data-structures-2/hackerearth-phase-3-advanced-data-structures-2.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DD7986D-24F3-49F0-A2C5-813A17BD9794}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DE25340-89C0-49F7-9F09-A918EACE8701}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="713" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -630,120 +630,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1144,7 +1031,7 @@
       <c r="A3" s="16"/>
       <c r="B3" s="12"/>
       <c r="C3" s="5" t="e">
-        <f t="shared" ref="C3:H3" si="0">AVERAGE(C4:C73)</f>
+        <f t="shared" ref="C3:H3" si="0">AVERAGE(C4:C173)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D3" s="5" t="e">
@@ -3094,86 +2981,6 @@
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
   </mergeCells>
-  <conditionalFormatting sqref="J1 A1">
-    <cfRule type="cellIs" dxfId="15" priority="51" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1">
-    <cfRule type="cellIs" dxfId="14" priority="29" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J8:J11 I12:J14">
-    <cfRule type="cellIs" dxfId="13" priority="18" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J88:J90 J92:J95">
-    <cfRule type="cellIs" dxfId="12" priority="15" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J91">
-    <cfRule type="cellIs" dxfId="11" priority="14" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J96">
-    <cfRule type="cellIs" dxfId="10" priority="13" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J88:J96">
-    <cfRule type="cellIs" dxfId="9" priority="12" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J97">
-    <cfRule type="cellIs" dxfId="8" priority="11" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J97">
-    <cfRule type="cellIs" dxfId="7" priority="10" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J98">
-    <cfRule type="cellIs" dxfId="6" priority="9" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J98">
-    <cfRule type="cellIs" dxfId="5" priority="8" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I8:I11">
-    <cfRule type="cellIs" dxfId="4" priority="7" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I88:I90 I92:I95">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I91">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I96">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I88:I96">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
-      <formula>1</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
